--- a/test1234.xlsx
+++ b/test1234.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\Desktop\School\BUS 601 Fund tech\Zag2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\Desktop\School\BUS 601 Fund Management\Zag2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DC4615-143B-4D66-B151-5ECDB580B7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D8703F-30F8-46FF-A78C-52FC0A42DDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7050" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,13 +38,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,12 +72,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +399,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="123.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C96" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/test1234.xlsx
+++ b/test1234.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,305 +483,297 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>45659</v>
+        <v>45695</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Yelp</t>
+          <t>Zelle Payment From Loma Linda Aesthetics Med Spa Drs</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12075.87</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>45660</v>
+        <v>45726</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Intuit</t>
+          <t>Zelle Payment From Loma Linda Aesthetics Med Spa Drs</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6043</v>
       </c>
       <c r="H3" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>45660</v>
+        <v>45708</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12725</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12725</t>
-        </is>
-      </c>
+          <t>Zelle Payment From Loma Linda Aesthetics Med Spa Drs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5953.46</v>
       </c>
       <c r="H4" t="n">
-        <v>2907.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>45660</v>
+        <v>45713</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12726</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12726</t>
-        </is>
-      </c>
+          <t>Zelle Payment From Loma Linda Aesthetics Med Spa Drs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5002.76</v>
       </c>
       <c r="H5" t="n">
-        <v>2090.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>45663</v>
+        <v>45730</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:WINTERS ENGINEERING IN CO ID:1790977000 CCD</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4125</v>
       </c>
       <c r="H6" t="n">
-        <v>2663.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>45663</v>
+        <v>45743</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CHASE CREDIT CRD DES:AUTOPAY ID:000000000175659 INDN:WINTERS CHRISTOPHER J CO ID:4760039224 PPD</t>
+          <t>Zelle Payment From Loma Linda Aesthetics Med Spa Drs</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4105.15</v>
       </c>
       <c r="H7" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>45663</v>
+        <v>45708</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CHASE CREDIT CRD DES:AUTOPAY ID:000000000537264 INDN:WINTERS CHRIS CO ID:4760039224 PPD</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3816</v>
       </c>
       <c r="H8" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>45663</v>
+        <v>45700</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3607</v>
       </c>
       <c r="H9" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>45663</v>
+        <v>45695</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aiprm</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3121.65</v>
       </c>
       <c r="H10" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>45664</v>
+        <v>45744</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kaseya.Com</t>
+          <t>Zelle Payment From Loma Linda Aesthetics Med Spa Drs</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2946.06</v>
       </c>
       <c r="H11" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>45665</v>
+        <v>45721</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AMERICAN EXPRESS DES:LOAN PMT ID:11150343 INDN:WINTERS ENGINEERING CO ID:3112869526 CCD</t>
+          <t>Zelle Payment From Loma Linda Aesthetics Med Spa Drs</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2916.07</v>
       </c>
       <c r="H12" t="n">
-        <v>730.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>45665</v>
+        <v>45712</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H13" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>45665</v>
+        <v>45747</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ACCOUNTANTSWORLD DES:PAYROLLDBT ID:XXXXXXXXX INDN:WINTERS ENGINEERING IN CO ID:1790977000 CCD</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2434.8</v>
       </c>
       <c r="H14" t="n">
-        <v>69.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>45665</v>
+        <v>45693</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WALGREENS STOR 01/08 #000560302 PURCHASE WALGREENS STORE 3 YUCAIPA CA</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2346</v>
       </c>
       <c r="H15" t="n">
-        <v>213.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>45666</v>
+        <v>45723</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BKOFAMERICA MOBILE 01/09 3793068779 DEPOSIT *MOBILE CA</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>7600</v>
+        <v>2307.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -791,125 +783,117 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
-        <v>45666</v>
+        <v>45744</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2215.25</v>
       </c>
       <c r="H17" t="n">
-        <v>41.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
-        <v>45667</v>
+        <v>45691</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:WINTERS ENGINEERING IN CO ID:1790977000 CCD</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1872</v>
       </c>
       <c r="H18" t="n">
-        <v>144.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
-        <v>45671</v>
+        <v>45733</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12728</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>12728</t>
-        </is>
-      </c>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="H19" t="n">
-        <v>2091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
-        <v>45671</v>
+        <v>45737</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12727</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>12727</t>
-        </is>
-      </c>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1696.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2907.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
-        <v>45672</v>
+        <v>45698</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>STATE FARM RO 27 DES:CPC-CLIENT ID:23 S 1327149423 INDN: WINTERS ENGINEERING I CO ID:9000313004 CCD</t>
+          <t>Counter Credit</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1490</v>
       </c>
       <c r="H21" t="n">
-        <v>100.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
-        <v>45673</v>
+        <v>45730</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Imperial Bag &amp; P DES:PAYMENT ID:WINENG INDN:WINTERS ENGINEERING CO ID:9186534002 CCD</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>7300</v>
+        <v>1489.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -919,237 +903,237 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
-        <v>45673</v>
+        <v>45735</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Payment To Crd 0198</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1452.88</v>
       </c>
       <c r="H23" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
-        <v>45673</v>
+        <v>45709</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:WINTERS ENGINEERING IN CO ID:1790977000 CCD</t>
+          <t>Zelle Payment From Loma Linda Aesthetics Med Spa Drs</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1351.31</v>
       </c>
       <c r="H24" t="n">
-        <v>2612.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
-        <v>45674</v>
+        <v>45712</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LBS EASYPAY DES:WEB PYMNT ID:XXXXXXXXX INDN:Christopher J Winters CO ID:2800853509 WEB</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1190.4</v>
       </c>
       <c r="H25" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
-        <v>45678</v>
+        <v>45721</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AMEX EPAYMENT DES:ACH PMT ID:A7800 INDN:Winters Engineering In CO ID:6133133497 CCD</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1025.3</v>
       </c>
       <c r="H26" t="n">
-        <v>476.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
-        <v>45678</v>
+        <v>45709</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CHECKCARD 0117 PAUL MARTINS AMERICAN 909-8993900 CA 24000975019049000505775 CKCD 5812 XXXXXXXXXXXX3292 XXXX XXXX XXXX 3292</t>
+          <t>Zelle payment from CHRISTINA M SHAFFELL Conf# 99ayy6p7g</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="H27" t="n">
-        <v>213.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
-        <v>45679</v>
+        <v>45726</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WIRE TYPE:WIRE OUT DATE:250122 TIME:1047 ET TRN:2025012200415819 SERVICE REF:537037 BNF:CHRISTOPHER WINTERS ID:066196221 BNF BK:JPMORG AN CHASE BANK, N ID:0002 PMT DET:532095262 FFC Z3 3265833 FBO Z33265833</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>760.1</v>
       </c>
       <c r="H28" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
-        <v>45679</v>
+        <v>45709</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Verizon</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="H29" t="n">
-        <v>551.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
-        <v>45679</v>
+        <v>45719</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>STATE FARM RO 27 DES:CPC-CLIENT ID:23 S 1248567723 INDN:CHRISTOPHER WINTERS CO ID:9000313004 CCD</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="H30" t="n">
-        <v>361.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
-        <v>45679</v>
+        <v>45702</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>STATE FARM RO 27 DES:CPC-CLIENT ID:23 S 1392546223 INDN:CHRISTOPHER WINTERS CO ID:9000313004 CCD</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="H31" t="n">
-        <v>336.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
-        <v>45679</v>
+        <v>45740</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>489.02</v>
       </c>
       <c r="H32" t="n">
-        <v>22.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
-        <v>45679</v>
+        <v>45714</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Wire Transfer Fee</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="H33" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
-        <v>45680</v>
+        <v>45716</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>BKOFAMERICA MOBILE 01/23 3796765865 DEPOSIT *MOBILE CA</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>9000</v>
+        <v>208.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1159,372 +1143,362 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="n">
-        <v>45680</v>
+        <v>45698</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AMEX EPAYMENT DES:ACH PMT ID:A0340 INDN:Winters Engineering In CO ID:6133133497 CCD</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" t="n">
-        <v>760.4400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
-        <v>45680</v>
+        <v>45707</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Intuit</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="H36" t="n">
-        <v>44.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="n">
-        <v>45681</v>
+        <v>45706</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PURCHASE 0123 OPENAI *CHATGPT SUBSCR OPENAI.COM CA</t>
+          <t>Zelle payment from LAUREN MARTIN Conf# T0YJW2CFR</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H37" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="n">
-        <v>45684</v>
+        <v>45691</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Anthem Blue</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H38" t="n">
-        <v>1981.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="n">
-        <v>45684</v>
+        <v>45698</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Heather Winters</t>
+          <t>Zelle payment from ERIKA L RAMIREZ TRUJILLO Conf# 99axqxd3r</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H39" t="n">
-        <v>1960.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
-        <v>45684</v>
+        <v>45707</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ACCOUNTANTSWORLD DES:PAYROLLDBT ID:XXXXXXXXX INDN:WINTERS ENGINEERING IN CO ID:1790977000 CCD</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H40" t="n">
-        <v>161.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
       <c r="C41" s="2" t="n">
-        <v>45684</v>
+        <v>45713</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PURCHASE 0125 WEB*NETWORKSOLUTIONS 888-6429675 FL</t>
+          <t>Zelle payment from BRISA HERNANDEZ Conf# xbkibwzhz</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H41" t="n">
-        <v>43.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" s="2" t="n">
-        <v>45684</v>
+        <v>45723</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CHECKCARD 0125 ETA JERUSALEM 74403035027029006055927 CKCD 9399 XXXXXXXXXXXX3292 XXXX XXXX XXXX 3292</t>
+          <t>Zelle payment from DANIEL VILLEGAS Conf# ryuusm30u</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H42" t="n">
-        <v>7.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr"/>
       <c r="C43" s="2" t="n">
-        <v>45684</v>
+        <v>45726</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CHECKCARD 0125 ETA JERUSALEM 74403035027029006055935 CKCD 9399 XXXXXXXXXXXX3292 XXXX XXXX XXXX 3292</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H43" t="n">
-        <v>7.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr"/>
       <c r="C44" s="2" t="n">
-        <v>45684</v>
+        <v>45736</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CHECKCARD 0125 ETA JERUSALEM 74403035027029006055935 CKCD 9399 XXXXXXXXXXXX3292 INTERNATIONAL TRANSACTION FEE</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr"/>
       <c r="C45" s="2" t="n">
-        <v>45684</v>
+        <v>45741</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CHECKCARD 0125 ETA JERUSALEM 74403035027029006055927 CKCD 9399 XXXXXXXXXXXX3292 INTERNATIONAL TRANSACTION FEE</t>
+          <t>Zelle payment from JANICE LEHMAN Conf# m4j3htwjh</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr"/>
       <c r="C46" s="2" t="n">
-        <v>45685</v>
+        <v>45741</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>STATE FARM RO 08 DES:CPC-CLIENT ID:23 F E7R4223 INDN:CHRISTOPHER WINTERS CO ID:9000313004 CCD</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H46" t="n">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr"/>
       <c r="C47" s="2" t="n">
-        <v>45685</v>
+        <v>45742</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H47" t="n">
-        <v>169.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr"/>
       <c r="C48" s="2" t="n">
-        <v>45685</v>
+        <v>45742</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Anthem Life</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H48" t="n">
-        <v>91.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
       <c r="C49" s="2" t="n">
-        <v>45685</v>
+        <v>45743</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Goto.Com</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H49" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
       <c r="C50" s="2" t="n">
-        <v>45686</v>
+        <v>45699</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Goto.Com</t>
+          <t>Prfd Rwds For Bus-Bofa Merchant Svs Cash Reward</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>7.26</v>
       </c>
       <c r="H50" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
       <c r="C51" s="2" t="n">
-        <v>45686</v>
+        <v>45727</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PURCHASE 0129 PRIMARY CARE SERVICES LIFESTYLEMEDICA</t>
+          <t>Prfd Rwds For Bus-Bofa Merchant Svs Cash Reward</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>5.67</v>
       </c>
       <c r="H51" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" s="2" t="n">
-        <v>45687</v>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Imperial Bag &amp; P DES:PAYMENT ID:WINENG INDN:WINTERS ENGINEERING CO ID:9186534002 CCD</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="n">
-        <v>7850</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
       <c r="C53" s="2" t="n">
-        <v>45687</v>
+        <v>45691</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>M&amp;T Bank Loan</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -1532,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>75.45999999999999</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
       <c r="C54" s="2" t="n">
-        <v>45687</v>
+        <v>45691</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CHECKCARD 0129 IDEMIA TSA PRECHECK 877-512-6962 MA 24015145030050519200310 CKCD 9399 XXXXXXXXXXXX3292 XXXX XXXX XXXX 3292</t>
+          <t>IRS DES:USATAXPYMT ID:240543452293987 INDN:BRANDON BRADLEY CO ID:3387702000 WEB</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -1552,67 +1526,59 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>58.75</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
       <c r="C55" s="2" t="n">
-        <v>45687</v>
+        <v>45691</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>12729</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>12729</t>
-        </is>
-      </c>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2907.69</v>
+        <v>397.24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr"/>
       <c r="C56" s="2" t="n">
-        <v>45687</v>
+        <v>45692</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>12730</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>12730</t>
-        </is>
-      </c>
+          <t>RETURN ITEM CHARGEBACK</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>2090.99</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
       <c r="C57" s="2" t="n">
-        <v>45688</v>
+        <v>45692</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:WINTERS ENGINEERING IN CO ID:1790977000 CCD</t>
+          <t>Capital One</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -1620,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>2452.92</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr"/>
       <c r="C58" s="2" t="n">
-        <v>45688</v>
+        <v>45693</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>Zelle payment to CRYSTAL CERVANTEZ Conf# gnt2fby32</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -1640,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>254.81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr"/>
       <c r="C59" s="2" t="n">
-        <v>45691</v>
+        <v>45693</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AMERICAN EXPRESS DES:ACH PMT ID:A8928 INDN:Winters Engineering In CO ID:3133133497 CCD</t>
+          <t>ACCOUNTANTSWORLD DES:PAYROLLDBT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -1660,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>400</v>
+        <v>1711.55</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr"/>
       <c r="C60" s="2" t="n">
-        <v>45691</v>
+        <v>45693</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>ACCOUNTANTSWORLD DES:PAYROLLDBT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -1680,39 +1646,39 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>22.17</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr"/>
       <c r="C61" s="2" t="n">
-        <v>45691</v>
+        <v>45693</v>
       </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:WINTERS ENGINEERING IN CO ID:1790977000 CCD</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>9.5</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
       <c r="C62" s="2" t="n">
-        <v>45691</v>
+        <v>45694</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CHECKCARD 0131 DLR CARTHAY CIRCLE ANAHEIM CA 24943005032141973469169 CKCD 5812 XXXXXXXXXXXX2509 XXXX XXXX XXXX 2509</t>
+          <t>So Cal Gas</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -1720,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>216.09</v>
+        <v>58.55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr"/>
       <c r="C63" s="2" t="n">
-        <v>45691</v>
+        <v>45695</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CHECKCARD 0130 TST*LA VOLATA PIZZERIA Redlands CA 24692165031105529023644 CKCD 5812 XXXXXXXXXXXX3292 XXXX XXXX XXXX 3292</t>
+          <t>Zelle payment to ANA PACHECO Conf# gycpjcopo</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -1740,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>114.82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr"/>
       <c r="C64" s="2" t="n">
-        <v>45691</v>
+        <v>45695</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Yelp</t>
+          <t>Capital One</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -1760,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>30</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr"/>
       <c r="C65" s="2" t="n">
-        <v>45691</v>
+        <v>45695</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Intuit</t>
+          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -1780,19 +1746,19 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>235</v>
+        <v>428.52</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr"/>
       <c r="C66" s="2" t="n">
-        <v>45691</v>
+        <v>45695</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Monthly Fee Business Adv Relationship</t>
+          <t>Online scheduled transfer to CHK 6965 Confirmation# 1941724367</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -1800,19 +1766,19 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>29.95</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr"/>
       <c r="C67" s="2" t="n">
-        <v>45692</v>
+        <v>45698</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Chevron</t>
+          <t>Zelle payment to George Auto Detailing Grajeda Conf# i0chz2u5k continued on the next page</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -1820,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>98.16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr"/>
       <c r="C68" s="2" t="n">
-        <v>45692</v>
+        <v>45698</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CHASE CREDIT CRD DES:AUTOPAY ID:000000000279291 INDN:WINTERS CHRIS CO ID:4760039224 PPD</t>
+          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -1840,39 +1806,39 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>95</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
       <c r="C69" s="2" t="n">
-        <v>45692</v>
+        <v>45698</v>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Aiprm</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1226</t>
+        </is>
+      </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>33</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr"/>
       <c r="C70" s="2" t="n">
-        <v>45693</v>
+        <v>45699</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Fairview Ford</t>
+          <t>Online Banking transfer to CHK 6965 Confirmation# 1731755757</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -1880,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1223.64</v>
+        <v>2604.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
       <c r="C71" s="2" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CHASE CREDIT CRD DES:AUTOPAY ID:000000000177075 INDN:WINTERS CHRISTOPHER J CO ID:4760039224 PPD</t>
+          <t>Capital One</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -1900,19 +1866,19 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>258</v>
+        <v>7966.26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr"/>
       <c r="C72" s="2" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>Gm Financial</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -1920,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>73.59999999999999</v>
+        <v>1037.01</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
       <c r="C73" s="2" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ACCOUNTANTSWORLD DES:PAYROLLDBT ID:XXXXXXXXX INDN:WINTERS ENGINEERING IN CO ID:1790977000 CCD</t>
+          <t>Clover</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -1940,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>72.25</v>
+        <v>80.84999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr"/>
       <c r="C74" s="2" t="n">
-        <v>45694</v>
+        <v>45701</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Kaseya.Com</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -1960,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>79</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr"/>
       <c r="C75" s="2" t="n">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Online scheduled transfer to CHK 6965 Confirmation# 1943803698</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -1980,19 +1946,19 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>216.41</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr"/>
       <c r="C76" s="2" t="n">
-        <v>45698</v>
+        <v>45702</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>AMERICAN EXPRESS DES:LOAN PMT ID:11265602 INDN:WINTERS ENGINEERING CO ID:3112869526 CCD</t>
+          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -2000,19 +1966,19 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>730.5599999999999</v>
+        <v>106.84</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr"/>
       <c r="C77" s="2" t="n">
-        <v>45698</v>
+        <v>45702</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>ACCOUNTANTSWORLD DES:PAYROLLDBT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -2020,39 +1986,39 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>54.37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr"/>
       <c r="C78" s="2" t="n">
-        <v>45699</v>
+        <v>45706</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>BKOFAMERICA MOBILE 02/11 3691873030 DEPOSIT *MOBILE CA</t>
+          <t>Zelle payment to ANA PACHECO Conf# kvhqjg7o1</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr"/>
       <c r="C79" s="2" t="n">
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CHECKCARD 0212 CIRCLE K 09216 YUCAIPA CA CKCD 5542 XXXXXXXXXXXX3292 XXXX XXXX XXXX 3292</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -2060,19 +2026,19 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>88.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr"/>
       <c r="C80" s="2" t="n">
-        <v>45701</v>
+        <v>45706</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>LBS EASYPAY DES:WEB PYMNT ID:XXXXXXXXX INDN:Christopher J Winters CO ID:2800853509 WEB</t>
+          <t>Online Banking transfer to CHK 6965 Confirmation# 1390084671</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -2080,39 +2046,39 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr"/>
       <c r="C81" s="2" t="n">
-        <v>45702</v>
+        <v>45706</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Imperial Bag &amp; P DES:PAYMENT ID:WINENG INDN:WINTERS ENGINEERING CO ID:9186534002 CCD</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>7700</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>472.7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="n">
-        <v>45702</v>
+        <v>45707</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transfer To Chk 6090</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -2120,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>2917.12</v>
+        <v>762.1900000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="n">
-        <v>45702</v>
+        <v>45707</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transfer To Chk 6090</t>
+          <t>ACCOUNTANTSWORLD DES:PAYROLLDBT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -2140,19 +2106,19 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>2770.85</v>
+        <v>1588.63</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="n">
-        <v>45702</v>
+        <v>45707</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>STATE FARM RO 27 DES:CPC-CLIENT ID:23 S 1327149423 INDN: WINTERS ENGINEERING I CO ID:9000313004 CCD</t>
+          <t>ACCOUNTANTSWORLD DES:PAYROLLDBT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -2160,39 +2126,39 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>100.33</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr"/>
       <c r="C85" s="2" t="n">
-        <v>45706</v>
+        <v>45708</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Online Banking transfer from CHK 6090 Confirmation# 4163116577</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr"/>
       <c r="C86" s="2" t="n">
-        <v>45706</v>
+        <v>45708</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -2200,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>8526.24</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr"/>
       <c r="C87" s="2" t="n">
-        <v>45706</v>
+        <v>45709</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>Online Banking transfer to CHK 6965 Confirmation# 1415017190</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -2220,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>3664.2</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr"/>
       <c r="C88" s="2" t="n">
-        <v>45706</v>
+        <v>45709</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:WINTERS ENGINEERING IN CO ID:1790977000 CCD</t>
+          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -2240,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>2867.1</v>
+        <v>459.54</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr"/>
       <c r="C89" s="2" t="n">
-        <v>45706</v>
+        <v>45709</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>Online scheduled transfer to CHK 6965 Confirmation# 1945543123</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -2260,19 +2226,19 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>2743.08</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr"/>
       <c r="C90" s="2" t="n">
-        <v>45706</v>
+        <v>45712</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>AMEX EPAYMENT DES:ACH PMT ID:A9422 INDN:Winters Engineering In CO ID:6133133497 CCD</t>
+          <t>Zelle payment to George Auto Detailing Grajeda Conf# il7rqtepy</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -2280,19 +2246,19 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>476.93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr"/>
       <c r="C91" s="2" t="n">
-        <v>45706</v>
+        <v>45712</v>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>Zelle payment to ANA PACHECO Conf# cjn441zdb</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -2300,19 +2266,19 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>311.89</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr"/>
       <c r="C92" s="2" t="n">
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>CARDMEMBER SERV DES:WEB PYMT ID:***********6970 INDN:WINTERS,CHRISTOPHER 17 CO ID:5911111111 WEB</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -2320,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>5479.76</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr"/>
       <c r="C93" s="2" t="n">
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>STATE FARM RO 27 DES:CPC-CLIENT ID:23 S 1248567723 INDN:CHRISTOPHER WINTERS CO ID:9000313004 CCD</t>
+          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -2340,19 +2306,19 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>446.92</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr"/>
       <c r="C94" s="2" t="n">
-        <v>45707</v>
+        <v>45713</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>STATE FARM RO 27 DES:CPC-CLIENT ID:23 S 1392546223 INDN:CHRISTOPHER WINTERS CO ID:9000313004 CCD</t>
+          <t>Online Banking transfer to CHK 3712 Confirmation# 1351697736 continued on the next page</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -2360,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>336.23</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr"/>
       <c r="C95" s="2" t="n">
-        <v>45708</v>
+        <v>45713</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Payment To Crd 9547</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -2380,19 +2346,19 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>4000</v>
+        <v>1041.98</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr"/>
       <c r="C96" s="2" t="n">
-        <v>45708</v>
+        <v>45714</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>AMEX EPAYMENT DES:ACH PMT ID:A8426 INDN:Winters Engineering In CO ID:6133133497 CCD</t>
+          <t>So Cal Edison</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -2400,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>760.4400000000001</v>
+        <v>103.55</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr"/>
       <c r="C97" s="2" t="n">
-        <v>45708</v>
+        <v>45714</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Finelo</t>
+          <t>So Cal Gas</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -2420,39 +2386,39 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>79.98999999999999</v>
+        <v>37.39</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr"/>
       <c r="C98" s="2" t="n">
-        <v>45708</v>
+        <v>45715</v>
       </c>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>12731</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Zelle payment to ANA PACHECO Conf# gz8ewfmdr</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1885</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr"/>
       <c r="C99" s="2" t="n">
-        <v>45709</v>
+        <v>45715</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Heather Winters</t>
+          <t>Online Banking transfer to CHK 3712 Confirmation# 1868797592</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -2460,19 +2426,19 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1960.27</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr"/>
       <c r="C100" s="2" t="n">
-        <v>45709</v>
+        <v>45715</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Verizon</t>
+          <t>IRS DES:USATAXPYMT ID:240545813185711 INDN:BRANDON BRADLEY CO ID:3387702000 WEB</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -2480,19 +2446,19 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>653.08</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr"/>
       <c r="C101" s="2" t="n">
-        <v>45709</v>
+        <v>45715</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>STATE FARM RO 08 DES:CPC-CLIENT ID:23 F E7R4223 INDN:CHRISTOPHER WINTERS CO ID:9000313004 CCD</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -2500,19 +2466,19 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>186</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr"/>
       <c r="C102" s="2" t="n">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Shell</t>
+          <t>Online scheduled transfer to CHK 6965 Confirmation# 1947596684</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -2520,19 +2486,19 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>172.59</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr"/>
       <c r="C103" s="2" t="n">
-        <v>45712</v>
+        <v>45719</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CHECKCARD 0221 TST*KOBE JAPANESE STEAK Rancho MirageCA 24692165053103977587569 CKCD 5812 XXXXXXXXXXXX3292 XXXX XXXX XXXX 3292</t>
+          <t>CITI AUTOPAY DES:PAYMENT ID:291632075030236 INDN:ANDREA L BRADLEY CO ID:CITICARDAP WEB</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -2540,19 +2506,19 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>295.34</v>
+        <v>1091.54</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr"/>
       <c r="C104" s="2" t="n">
-        <v>45712</v>
+        <v>45719</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>PURCHASE 0222 WEB*NETWORKSOLUTIONS 888-6429675 FL</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -2560,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>43.16</v>
+        <v>420.57</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr"/>
       <c r="C105" s="2" t="n">
-        <v>45712</v>
+        <v>45720</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>PURCHASE 0223 OPENAI *CHATGPT SUBSCR OPENAI.COM CA</t>
+          <t>Online Banking transfer to CHK 3712 Confirmation# 1706016144</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -2580,39 +2546,39 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr"/>
       <c r="C106" s="2" t="n">
-        <v>45713</v>
+        <v>45721</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>BKOFAMERICA MOBILE 02/25 3759953575 DEPOSIT *MOBILE CA</t>
+          <t>ACCOUNTANTSWORLD DES:PAYROLLDBT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1719.71</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr"/>
       <c r="C107" s="2" t="n">
-        <v>45715</v>
+        <v>45721</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>ACCOUNTANTSWORLD DES:PAYROLLDBT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -2620,63 +2586,59 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>179.98</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr"/>
       <c r="C108" s="2" t="n">
-        <v>45715</v>
+        <v>45722</v>
       </c>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>12733</t>
-        </is>
-      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>2761.84</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr"/>
       <c r="C109" s="2" t="n">
-        <v>45715</v>
+        <v>45722</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>12732</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>12732</t>
-        </is>
-      </c>
+          <t>Capital One</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>2907.69</v>
+        <v>3894.99</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr"/>
       <c r="C110" s="2" t="n">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:WINTERS ENGINEERING IN CO ID:1790977000 CCD</t>
+          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -2684,19 +2646,19 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>2852.76</v>
+        <v>523.3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr"/>
       <c r="C111" s="2" t="n">
-        <v>45716</v>
+        <v>45723</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Anthem Blue</t>
+          <t>Online scheduled transfer to CHK 6965 Confirmation# 1950286722</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -2704,19 +2666,19 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>2215.16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr"/>
       <c r="C112" s="2" t="n">
-        <v>45716</v>
+        <v>45726</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Anthem Life</t>
+          <t>Online Banking transfer to CHK 3712 Confirmation# 2062785141</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -2724,19 +2686,19 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>91.5</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr"/>
       <c r="C113" s="2" t="n">
-        <v>45716</v>
+        <v>45726</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Goto.Com</t>
+          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -2744,39 +2706,39 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>320</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr"/>
       <c r="C114" s="2" t="n">
-        <v>45716</v>
+        <v>45726</v>
       </c>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>PURCHASE 0228 PRIMARY CARE SERVICES LIFESTYLEMEDICA</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1247</t>
+        </is>
+      </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>35</v>
+        <v>450</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr"/>
       <c r="C115" s="2" t="n">
-        <v>45719</v>
+        <v>45727</v>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>AMERICAN EXPRESS DES:ACH PMT ID:A4008 INDN:Winters Engineering In CO ID:3133133497 CCD</t>
+          <t>Clover</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -2784,19 +2746,19 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>400</v>
+        <v>80.84999999999999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr"/>
       <c r="C116" s="2" t="n">
-        <v>45719</v>
+        <v>45727</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>So Cal Gas</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -2804,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>35.16</v>
+        <v>56.26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr"/>
       <c r="C117" s="2" t="n">
-        <v>45719</v>
+        <v>45729</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Goto.Com</t>
+          <t>Online Banking transfer to CHK 3712 Confirmation# 1590633914</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -2824,19 +2786,19 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>69</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr"/>
       <c r="C118" s="2" t="n">
-        <v>45719</v>
+        <v>45730</v>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>CHECKCARD 0228 THE MEXICO CAFE SAN BERNARDINCA 24013395060000101055081 CKCD 5812 XXXXXXXXXXXX3292 XXXX XXXX XXXX 3292</t>
+          <t>Gm Financial</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -2844,19 +2806,19 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>76</v>
+        <v>1037.01</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr"/>
       <c r="C119" s="2" t="n">
-        <v>45719</v>
+        <v>45730</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Yelp</t>
+          <t>Online scheduled transfer to CHK 6965 Confirmation# 1952276350</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -2864,19 +2826,19 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>3.74</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr"/>
       <c r="C120" s="2" t="n">
-        <v>45719</v>
+        <v>45733</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Intuit</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -2884,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>235</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr"/>
       <c r="C121" s="2" t="n">
-        <v>45719</v>
+        <v>45735</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Monthly Fee Business Adv Relationship</t>
+          <t>ACCOUNTANTSWORLD DES:PAYROLLDBT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
@@ -2904,19 +2866,19 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>29.95</v>
+        <v>1624.18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr"/>
       <c r="C122" s="2" t="n">
-        <v>45720</v>
+        <v>45735</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Aiprm</t>
+          <t>ACCOUNTANTSWORLD DES:PAYROLLDBT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -2924,19 +2886,19 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>33</v>
+        <v>104.58</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr"/>
       <c r="C123" s="2" t="n">
-        <v>45721</v>
+        <v>45737</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
@@ -2944,39 +2906,39 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>29</v>
+        <v>477.88</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr"/>
       <c r="C124" s="2" t="n">
-        <v>45722</v>
+        <v>45737</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Imperial Bag &amp; P DES:PAYMENT ID:WINENG INDN:WINTERS ENGINEERING CO ID:9186534002 CCD</t>
+          <t>Online scheduled transfer to CHK 6965 Confirmation# 1954115664</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>7686</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr"/>
       <c r="C125" s="2" t="n">
-        <v>45722</v>
+        <v>45740</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Kaseya.Com</t>
+          <t>Zelle payment to ANA PACHECO Conf# effws2yky</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -2984,19 +2946,19 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>79</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr"/>
       <c r="C126" s="2" t="n">
-        <v>45726</v>
+        <v>45740</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>CORPORATION SERV DES:LEGAL SVCS ID:0457136 INDN:CHRISTOPHER J. *WINTER CO ID:0000110186 TEL</t>
+          <t>M&amp;T Bank Loan</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -3004,19 +2966,19 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>235</v>
+        <v>963</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr"/>
       <c r="C127" s="2" t="n">
-        <v>45726</v>
+        <v>45740</v>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ACCOUNTANTSWORLD DES:PAYROLLDBT ID:XXXXXXXXX INDN:WINTERS ENGINEERING IN CO ID:1790977000 CCD</t>
+          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -3024,59 +2986,59 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>70.25</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr"/>
       <c r="C128" s="2" t="n">
-        <v>45726</v>
+        <v>45740</v>
       </c>
       <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Chris Winters</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>56.24</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr"/>
       <c r="C129" s="2" t="n">
-        <v>45727</v>
+        <v>45741</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>BKOFAMERICA MOBILE 03/11 3767437489 DEPOSIT *MOBILE CA</t>
+          <t>Online Banking transfer to CHK 6965 Confirmation# 1387350150</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr"/>
       <c r="C130" s="2" t="n">
-        <v>45727</v>
+        <v>45741</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>AMERICAN EXPRESS DES:LOAN PMT ID:11380349 INDN:WINTERS ENGINEERING CO ID:3112869526 CCD</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -3084,19 +3046,19 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>730.5599999999999</v>
+        <v>1041.98</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr"/>
       <c r="C131" s="2" t="n">
-        <v>45727</v>
+        <v>45742</v>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>PURCHASE 0310 WGU ACADEMY.WGU.EUT</t>
+          <t>BKOFAMERICA BC 03/26 #000003061 TO CHKG 1672 E 2nd St Beaumont CA</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -3104,19 +3066,19 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr"/>
       <c r="C132" s="2" t="n">
-        <v>45728</v>
+        <v>45742</v>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transfer To Chk 6090</t>
+          <t>Capital One</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
@@ -3124,19 +3086,19 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>2907.7</v>
+        <v>9714</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr"/>
       <c r="C133" s="2" t="n">
-        <v>45728</v>
+        <v>45743</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transfer To Chk 6090</t>
+          <t>Zelle payment to George Auto Detailing Grajeda Conf# enhqln7di</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
@@ -3144,19 +3106,19 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>2761.83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr"/>
       <c r="C134" s="2" t="n">
-        <v>45728</v>
+        <v>45743</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Payment To Crd 0198</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
@@ -3164,19 +3126,19 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>1000</v>
+        <v>279.41</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr"/>
       <c r="C135" s="2" t="n">
-        <v>45729</v>
+        <v>45743</v>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:WINTERS ENGINEERING IN CO ID:1790977000 CCD</t>
+          <t>Online Banking transfer to CHK 6965 Confirmation# 1411631941</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -3184,19 +3146,19 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>2852.76</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr"/>
       <c r="C136" s="2" t="n">
-        <v>45729</v>
+        <v>45743</v>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>LBS EASYPAY DES:WEB PYMNT ID:XXXXXXXXX INDN:Christopher J Winters CO ID:2800853509 WEB</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
@@ -3204,19 +3166,19 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>900</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr"/>
       <c r="C137" s="2" t="n">
-        <v>45729</v>
+        <v>45743</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>So Cal Gas</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -3224,39 +3186,39 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>537.83</v>
+        <v>26.63</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr"/>
       <c r="C138" s="2" t="n">
-        <v>45730</v>
+        <v>45744</v>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Imperial Bag &amp; P DES:PAYMENT ID:WINENG INDN:WINTERS ENGINEERING CO ID:9186534002 CCD</t>
+          <t>Online Banking transfer to CHK 3712 Confirmation# 1613118959</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="n">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr"/>
       <c r="C139" s="2" t="n">
-        <v>45730</v>
+        <v>45744</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>STATE FARM RO 27 DES:CPC-CLIENT ID:23 S 1327149423 INDN: WINTERS ENGINEERING I CO ID:9000313004 CCD</t>
+          <t>Zelle payment to ANA PACHECO Conf# d91og61xu</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -3264,39 +3226,39 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>100.33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr"/>
       <c r="C140" s="2" t="n">
-        <v>45733</v>
+        <v>45744</v>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>BKOFAMERICA MOBILE 03/17 3779037146 DEPOSIT *MOBILE CA</t>
+          <t>"</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="n">
-        <v>544</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr"/>
       <c r="C141" s="2" t="n">
-        <v>45733</v>
+        <v>45744</v>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Heather Winters</t>
+          <t>Online scheduled transfer to CHK 6965 Confirmation# 1955650726</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -3304,19 +3266,19 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>1960.27</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr"/>
       <c r="C142" s="2" t="n">
-        <v>45734</v>
+        <v>45744</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Chris Winters</t>
+          <t>PAYROLLTAX DES:TAX DEBIT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -3324,19 +3286,19 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>866.9400000000001</v>
+        <v>63.15</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr"/>
       <c r="C143" s="2" t="n">
-        <v>45734</v>
+        <v>45744</v>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>AMEX EPAYMENT DES:ACH PMT ID:A2814 INDN:Winters Engineering In CO ID:6133133497 CCD</t>
+          <t>ACCOUNTANTSWORLD DES:PAYROLLDBT ID:XXXXXXXXX INDN:ANDREA LORRAINE ROSAS CO ID:1790977000 CCD</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
@@ -3344,19 +3306,19 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>476.93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr"/>
       <c r="C144" s="2" t="n">
-        <v>45734</v>
+        <v>45747</v>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Heather Winters</t>
+          <t>So Cal Edison</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
@@ -3364,550 +3326,90 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>79.2</v>
+        <v>116.41</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr"/>
-      <c r="C145" s="2" t="n">
-        <v>45735</v>
-      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Intuit</t>
-        </is>
-      </c>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr"/>
-      <c r="C146" s="2" t="n">
-        <v>45735</v>
-      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>STATE FARM RO 27 DES:CPC-CLIENT ID:23 S 1248567723 INDN:CHRISTOPHER WINTERS CO ID:9000313004 CCD</t>
-        </is>
-      </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
-      <c r="G146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H146" t="n">
-        <v>446.92</v>
-      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr"/>
-      <c r="C147" s="2" t="n">
-        <v>45735</v>
-      </c>
+      <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>STATE FARM RO 27 DES:CPC-CLIENT ID:23 S 1392546223 INDN:CHRISTOPHER WINTERS CO ID:9000313004 CCD</t>
-        </is>
-      </c>
+      <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" t="n">
-        <v>0</v>
-      </c>
-      <c r="H147" t="n">
-        <v>336.23</v>
-      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr"/>
-      <c r="C148" s="2" t="n">
-        <v>45735</v>
-      </c>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>MIDLAND NATIONAL DES:INSURANCE ID:P101508197537 INDN:Christopher Winters CO ID:4601645702 PPD</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>84577.41000000002</v>
       </c>
       <c r="H148" t="n">
-        <v>218.9</v>
+        <v>84500.92</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr"/>
-      <c r="C149" s="2" t="n">
-        <v>45737</v>
-      </c>
+      <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Verizon</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>STMT</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>84577.41</v>
       </c>
       <c r="H149" t="n">
-        <v>603.3099999999999</v>
+        <v>84500.92</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr"/>
-      <c r="C150" s="2" t="n">
-        <v>45740</v>
-      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>AMEX EPAYMENT DES:ACH PMT ID:A4406 INDN:Winters Engineering In CO ID:6133133497 CCD</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>DIFF</t>
+        </is>
+      </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>760.4400000000001</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr"/>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" s="2" t="n">
-        <v>45740</v>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>CHECKCARD 0321 TST*LA VOLATA PIZZERIA Redlands CA 24692165081106005100707 CKCD 5812 XXXXXXXXXXXX3292 XXXX XXXX XXXX 3292</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" t="n">
-        <v>107.65</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr"/>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" s="2" t="n">
-        <v>45740</v>
-      </c>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>PURCHASE 0322 WEB*NETWORKSOLUTIONS 888-6429675 FL</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="n">
-        <v>0</v>
-      </c>
-      <c r="H152" t="n">
-        <v>43.16</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr"/>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" s="2" t="n">
-        <v>45740</v>
-      </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Motley Fool</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="n">
-        <v>0</v>
-      </c>
-      <c r="H153" t="n">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr"/>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" s="2" t="n">
-        <v>45740</v>
-      </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>PURCHASE 0323 OPENAI *CHATGPT SUBSCR OPENAI.COM CA</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="n">
-        <v>0</v>
-      </c>
-      <c r="H154" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr"/>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" s="2" t="n">
-        <v>45741</v>
-      </c>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>BKOFAMERICA MOBILE 03/25 3783797438 DEPOSIT *MOBILE CA</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="n">
-        <v>9000</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr"/>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" s="2" t="n">
-        <v>45741</v>
-      </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Chris Winters</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="n">
-        <v>0</v>
-      </c>
-      <c r="H156" t="n">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr"/>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" s="2" t="n">
-        <v>45741</v>
-      </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Anthem Life</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="n">
-        <v>0</v>
-      </c>
-      <c r="H157" t="n">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr"/>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" s="2" t="n">
-        <v>45743</v>
-      </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Chris Winters</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="n">
-        <v>0</v>
-      </c>
-      <c r="H158" t="n">
-        <v>179.98</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr"/>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" s="2" t="n">
-        <v>45743</v>
-      </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Intuit</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="n">
-        <v>0</v>
-      </c>
-      <c r="H159" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr"/>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" s="2" t="n">
-        <v>45744</v>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Transfer To Chk 6090</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="n">
-        <v>0</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2907.68</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr"/>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" s="2" t="n">
-        <v>45744</v>
-      </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Transfer To Chk 6090</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="n">
-        <v>0</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2761.84</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr"/>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" s="2" t="n">
-        <v>45744</v>
-      </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Goto.Com</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="n">
-        <v>0</v>
-      </c>
-      <c r="H162" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr"/>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Anthem Blue</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="n">
-        <v>0</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2215.16</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr"/>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Chris Winters</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="n">
-        <v>0</v>
-      </c>
-      <c r="H164" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr"/>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Goto.Com</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="n">
-        <v>0</v>
-      </c>
-      <c r="H165" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr"/>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>PURCHASE 0329 PRIMARY CARE SERVICES LIFESTYLEMEDICA</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H166" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr"/>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>CHECKCARD 0329 ISABELLAS TRATTORIA YUCAIPA CA 24122595089030036434937 CKCD 5812 XXXXXXXXXXXX3292 XXXX XXXX XXXX 3292</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="n">
-        <v>0</v>
-      </c>
-      <c r="H167" t="n">
-        <v>179.7</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr"/>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr"/>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr"/>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr"/>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
-        <v>117600.57</v>
-      </c>
-      <c r="H171" t="n">
-        <v>122300.4</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr"/>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>stmt</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>117600.57</v>
-      </c>
-      <c r="H172" t="n">
-        <v>122300.4</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr"/>
-      <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>diff</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>0</v>
-      </c>
-      <c r="H173" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test1234.xlsx
+++ b/test1234.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,17 +483,19 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>45632</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>46011</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>46011</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MARLISA C HODGIN ONLINE PAYMENT - THANK YOU</t>
+          <t>Payment Received US BANK NA N/A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>1625.39</v>
+        <v>10000</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -502,28 +504,42 @@
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" s="2" t="n">
+        <v>46012</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>46013</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Payment Received US BANK NA N/A</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>45617</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>45713</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45713</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Wireless Credit Transaction Processed By American Express</t>
+          <t>Payment Received US BANK NA N/A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>7314.03</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,123 +548,123 @@
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Payment Received US BANK NA N/A</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>3926.18</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>45613</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>46020</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>46020</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ADOBE Adobe Systems SAN JOSE CA ADOBE.LY/ENUS</t>
+          <t>Payment Received US BANK NA N/A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3631.53</v>
       </c>
       <c r="H6" t="n">
-        <v>-19.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>45625</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>45979</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45980</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ADTSECURITY MYADT.COM 800-238-2727 FL SECURITY</t>
+          <t>Payment Received US BANK NA N/A</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H7" t="n">
-        <v>-57.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" s="2" t="n">
-        <v>45620</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Apple</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-10.99</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>45629</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>45976</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45979</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Sally Beauty</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>23.52</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" s="2" t="n">
-        <v>45608</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Bath And Body Works</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-21.98</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>45629</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>45996</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45997</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bath And Body Works</t>
+          <t>0722- JB WHOLESALE MURRIETA CA 284</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -656,19 +672,21 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-112.18</v>
+        <v>-284.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>45632</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>46006</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>46007</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Brinks Home Security</t>
+          <t>10X Health Network</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -676,19 +694,21 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-36.96</v>
+        <v>-54.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>45630</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>45698</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45698</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Butler Chemicals</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -696,19 +716,21 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1713.58</v>
+        <v>-59.99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>45981</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45981</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Chevron</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -716,19 +738,21 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-21.71</v>
+        <v>-32.27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>45620</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>45980</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45980</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chevron</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -736,19 +760,21 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-25.32</v>
+        <v>-83.01000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>45636</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>45725</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45725</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Circle K</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -756,19 +782,21 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-51.73</v>
+        <v>-107.07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>45719</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45719</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Go Carwash</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -776,19 +804,21 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-18</v>
+        <v>-54.89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
-        <v>45610</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>45716</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45689</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Icw Group</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -796,19 +826,21 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-611.09</v>
+        <v>-172.38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
-        <v>45633</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>45693</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45694</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cash And Carry</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -816,19 +848,21 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-453.18</v>
+        <v>-32.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
-        <v>45634</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>45726</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45727</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Joinhomebase.Com</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -836,19 +870,21 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-24.95</v>
+        <v>-35.49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
-        <v>45619</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>45678</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45679</v>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Morongo Travel Center</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -856,19 +892,21 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-72.54000000000001</v>
+        <v>-71.09999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
-        <v>45610</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>45987</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45988</v>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Orkin Llc</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -876,19 +914,21 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-155.99</v>
+        <v>-33.01</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
-        <v>45638</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>45980</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45980</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Orkin Llc</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -896,19 +936,21 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-155.99</v>
+        <v>-168.57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
-        <v>45613</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>45988</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45988</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Prudential Overall</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -916,19 +958,21 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-136.28</v>
+        <v>-21.55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
-        <v>45613</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>46010</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>46010</v>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Prudential Overall</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -936,19 +980,21 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-136.28</v>
+        <v>-239.98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
-        <v>45613</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>45993</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45994</v>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Prudential Overall</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -956,19 +1002,21 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-127.68</v>
+        <v>-117.28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
-        <v>45613</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>45674</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45674</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Prudential Overall</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -976,19 +1024,21 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-136.28</v>
+        <v>-71.09999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
-        <v>45613</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>46010</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>46010</v>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Prudential Overall</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -996,19 +1046,21 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-136.28</v>
+        <v>-129.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
-        <v>45613</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>46013</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>46014</v>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Prudential Overall</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1016,19 +1068,21 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-136.28</v>
+        <v>-95.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
-        <v>45609</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>46013</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>46014</v>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Restaurant Depot</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1036,19 +1090,21 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-438.96</v>
+        <v>-17.23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
-        <v>45609</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>46014</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>46014</v>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Restaurant Depot</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1056,19 +1112,21 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-209.65</v>
+        <v>-332.76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
-        <v>45612</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>46014</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>46014</v>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Restaurant Depot</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1076,19 +1134,21 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-637.25</v>
+        <v>-199.62</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
-        <v>45620</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>46011</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>46011</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Restaurant Depot</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1096,19 +1156,21 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-194.45</v>
+        <v>-11.63</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
-        <v>45626</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>46011</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>46011</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Restaurant Depot</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1116,19 +1178,21 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-159.75</v>
+        <v>-171.63</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="n">
-        <v>45631</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>46014</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>46014</v>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Restaurant Depot</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1136,19 +1200,21 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-172.42</v>
+        <v>-49.54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
-        <v>45613</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+        <v>46013</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>46014</v>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SAM'S CLUB 4732 4732 GLENDALE AZ WHOLESALE CLUB</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1156,19 +1222,21 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-37.92</v>
+        <v>-45.24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="n">
-        <v>45618</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>46013</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>46014</v>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sam's Club Fuel</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -1176,19 +1244,21 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-47.39</v>
+        <v>-90.48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="n">
-        <v>45612</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>46018</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>46018</v>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Smart And Final</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -1196,19 +1266,21 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-49.53</v>
+        <v>-43.09</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="n">
-        <v>45612</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>45992</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45993</v>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Smart And Final</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -1216,19 +1288,21 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-96.25</v>
+        <v>-98.98999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
-        <v>45623</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>45693</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45694</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Smart And Final</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -1236,19 +1310,21 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-30.94</v>
+        <v>-149.77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
       <c r="C41" s="2" t="n">
-        <v>45632</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+        <v>45723</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45536</v>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Smart And Final</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -1256,19 +1332,21 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-200.98</v>
+        <v>-49.01</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" s="2" t="n">
-        <v>45618</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
+        <v>45726</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45726</v>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Smart And Final</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -1276,19 +1354,21 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-58.26</v>
+        <v>-361.88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr"/>
       <c r="C43" s="2" t="n">
-        <v>45619</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+        <v>45708</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45708</v>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Smart And Final</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -1296,19 +1376,21 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-137.09</v>
+        <v>-79.72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr"/>
       <c r="C44" s="2" t="n">
-        <v>45623</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>45693</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45694</v>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Smart And Final</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -1316,19 +1398,21 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-25.99</v>
+        <v>-27.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr"/>
       <c r="C45" s="2" t="n">
-        <v>45637</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+        <v>45712</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45712</v>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Smart And Final</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -1336,19 +1420,21 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>-135.26</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr"/>
       <c r="C46" s="2" t="n">
-        <v>45638</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+        <v>46011</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>46011</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Smart And Final</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -1356,19 +1442,21 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-34.4</v>
+        <v>-23.48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr"/>
       <c r="C47" s="2" t="n">
-        <v>45620</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
+        <v>45673</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45674</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Spectrum</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -1376,19 +1464,21 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>-164.11</v>
+        <v>-30.16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr"/>
       <c r="C48" s="2" t="n">
-        <v>45638</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>45704</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45705</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Spectrum</t>
+          <t>AMZN Mktp US IG74S0YH3 Amzn.com/bill WA 151</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -1396,19 +1486,21 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>-5</v>
+        <v>-150.82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
       <c r="C49" s="2" t="n">
-        <v>45623</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>45676</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45677</v>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Stater Bros</t>
+          <t>AMZN Mktp US ZC58J80S2 Amzn.com/bill WA 344</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -1416,19 +1508,21 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>-30.1</v>
+        <v>-343.68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
       <c r="C50" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>46006</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>46007</v>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Stater Bros</t>
+          <t>AMZN Mktp US*Z18UV0NB0 Amzn.com/bill WA 114</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -1436,19 +1530,21 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>-109.46</v>
+        <v>-113.99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
       <c r="C51" s="2" t="n">
-        <v>45630</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+        <v>46009</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>46010</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Stater Bros</t>
+          <t>AMZN Mktp US*Z90TK1PS2 Amzn.com/billWA 24</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -1456,19 +1552,21 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>-38.56</v>
+        <v>-23.99</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
       <c r="C52" s="2" t="n">
-        <v>45631</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>46007</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>46007</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Stater Bros</t>
+          <t>AMZN Mktp US*ZX9D08UW1 Amzn.com/bill WA 560</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -1476,19 +1574,21 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-32.57</v>
+        <v>-560.28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
       <c r="C53" s="2" t="n">
-        <v>45610</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+        <v>45677</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45678</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Stater Bros</t>
+          <t>APPLE.COM/BILL 866-712-7753 CA 12</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -1496,19 +1596,21 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>-13.06</v>
+        <v>-11.99</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
       <c r="C54" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+        <v>46002</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>46003</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Stater Bros</t>
+          <t>APPLE.COM/BILL 866-712-7753 CA 12</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -1516,19 +1618,21 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>-75.44</v>
+        <v>-11.99</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
       <c r="C55" s="2" t="n">
-        <v>45619</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>45658</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45659</v>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Stater Bros</t>
+          <t>APPLE.COM/BILL 866-712-7753 CA 160</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -1536,19 +1640,21 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>-6.99</v>
+        <v>-159.99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr"/>
       <c r="C56" s="2" t="n">
-        <v>45619</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+        <v>45686</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45687</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Stater Bros</t>
+          <t>APPLE.COM/BILL 866-712-7753 CA 3</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -1556,19 +1662,21 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-3.99</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
       <c r="C57" s="2" t="n">
-        <v>45619</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>45717</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45718</v>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>APPLE.COM/BILL 866-712-7753 CA 3</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -1576,19 +1684,21 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>-6.45</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr"/>
       <c r="C58" s="2" t="n">
-        <v>45619</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>45991</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45992</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>APPLE.COM/BILL 866-712-7753 CA 3</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -1596,19 +1706,21 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>-49.06</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr"/>
       <c r="C59" s="2" t="n">
-        <v>45620</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+        <v>46020</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>46021</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>APPLE.COM/BILL 866-712-7753 CA 3</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -1616,19 +1728,21 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>-43.08</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr"/>
       <c r="C60" s="2" t="n">
-        <v>45620</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+        <v>45708</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45709</v>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>APPLE.COM/BILL CUPERTINO CA 12</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -1636,19 +1750,21 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>-43.18</v>
+        <v>-11.99</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr"/>
       <c r="C61" s="2" t="n">
-        <v>45620</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+        <v>45721</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45722</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>At&amp;t</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -1656,19 +1772,21 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>-9.789999999999999</v>
+        <v>-183.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
       <c r="C62" s="2" t="n">
-        <v>45620</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>45721</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45722</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>At&amp;t</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -1676,19 +1794,21 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>-25.95</v>
+        <v>-233.13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr"/>
       <c r="C63" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>46015</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>46017</v>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Vons</t>
+          <t>Best Buy</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -1696,19 +1816,21 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>-13.98</v>
+        <v>-1362.27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr"/>
       <c r="C64" s="2" t="n">
-        <v>45612</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>45716</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45718</v>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Vons</t>
+          <t>BMG - MYCHART 909-786-0862 CA 45</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -1716,19 +1838,21 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>-38.91</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr"/>
       <c r="C65" s="2" t="n">
-        <v>45613</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>45709</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45709</v>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Vons</t>
+          <t>BMG MYCHART 909-786-0862 CA 684</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -1736,19 +1860,21 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>-50.9</v>
+        <v>-683.66</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr"/>
       <c r="C66" s="2" t="n">
-        <v>45619</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>45672</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45673</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Vons</t>
+          <t>Chevron</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -1756,19 +1882,21 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>-35.15</v>
+        <v>-40.02</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr"/>
       <c r="C67" s="2" t="n">
-        <v>45620</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>45664</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45665</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Vons</t>
+          <t>COSMOPROF 000087074 REDLANDS CA 150</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -1776,19 +1904,21 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>-123.38</v>
+        <v>-149.75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr"/>
       <c r="C68" s="2" t="n">
-        <v>45625</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>45709</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45711</v>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Vons</t>
+          <t>COSMOPROF 000087074 REDLANDS CA 73</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -1796,19 +1926,21 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>-24.95</v>
+        <v>-72.56999999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
       <c r="C69" s="2" t="n">
-        <v>45626</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>46009</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>46010</v>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Vons</t>
+          <t>Ace</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -1816,19 +1948,21 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>-31.95</v>
+        <v>-20.02</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr"/>
       <c r="C70" s="2" t="n">
-        <v>45632</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
+        <v>45680</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45683</v>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Vons</t>
+          <t>EISENHOWER PRIMARY CAR PALM DESERT CA 45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -1836,90 +1970,1400 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>-19.54</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="C71" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>FAMOUS TIRE COMPANY BANNING CA 4,500</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-4500</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="C72" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Ferrell Gas</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="C73" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>FMG INT MED SPEC. FMO LOMA LINDA CA 45</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-45</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
+      <c r="C74" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>FSP*RUNNING CENTER TEMECULA CA 141</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>1630.39</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>8038.299999999997</v>
+        <v>-141.38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>STMT</t>
-        </is>
-      </c>
+      <c r="C75" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>FSP*RUNNING CENTER TEMECULA CA 315</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
-        <v>1630.39</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>8038.3</v>
+        <v>-315.38</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>DIFF</t>
-        </is>
-      </c>
+      <c r="C76" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>HOTELCOM72982359696463 HOTELS.COM WA 415</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
+        <v>-414.9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>HS IMAGING BEAUMONT CA 85</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Interest Charge</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-156.61</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Interest Charge</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-142.15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>LLUMC CASHIER LOMA LINDA CA 5,507</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-5507.06</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>LLUMC CASHIER LOMA LINDA CA 527</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-526.78</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" s="2" t="n">
+        <v>45730</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45732</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>MED REDLANDS COMMUNITY REDLANDS CA 4,400</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-4400</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" s="2" t="n">
+        <v>45690</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-99.98999999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Modern Nails</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-70.5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" s="2" t="n">
+        <v>46016</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>46017</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>MYBESTBUY TOTAL YEARLY RICHFIELD MN 194</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-193.94</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NORTON *AP1564346849 NORTON.COM/CC AZ 120</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-119.99</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45704</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>PIZZA CHALET ARCADE YUCAIPA CA 20</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Prime Video</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-5.99</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Prime Video</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-16.99</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45718</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Prime Video</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-16.99</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Prime Video</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-16.99</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45718</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Prime Video</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-5.99</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Prime Video</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-5.99</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45690</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Prime Video</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-5.99</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Prime Video</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-16.99</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Quest Diagnostics</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-149.25</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Quest Diagnostics</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-27.62</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Quest Diagnostics</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-93.16</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>SAMMYS CAFE CLAREMONT CALIMESA CA 168</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-83.51000000000001</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" s="2" t="n">
+        <v>46019</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>SHORELINE VILLAGE LONG BEACH CA 40</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>SignUp *CountdownToThe 8883851360 NJ 53</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-52.94</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Live Bearded</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-27.5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Live Bearded</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-51.75</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45725</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Live Bearded</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-77.59999999999999</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" s="2" t="n">
+        <v>46012</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>46014</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>SP MECHE WELLNESS STUDIO CITY CA 29</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-29.13</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>SP MECHE WELLNESS STUDIO CITY CA 46</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-46.22</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>SP MECHE WELLNESS STUDIO CITY CA 46</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-46.22</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>46010</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>SP POPULAR ITEMS TUCSON AZ 32</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-31.79</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>SP SHOP.HERO.CO SAN FRANCISCO CA 53</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-52.99</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>SP SHOP.HERO.CO SAN FRANCISCO CA 53</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-52.99</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>SQ *ALFRED RODRIGUEZ San Bernardin CA 40</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>SQ *LOVE ROCK MINISTRI San Bernardin CA 42</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Structure Studios</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-1997</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" s="2" t="n">
+        <v>46019</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>THE FUNNEL HOUSE QPS LONG BEACH CA 32</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-16.04</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>46011</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>BAKER'S BURGERS - CALIMESA CA 34</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-16.63</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>BAKER'S BURGERS - CALIMESA CA 34</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-29.22</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" s="2" t="n">
+        <v>46006</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Waba Grill</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-83.98</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Waba Grill</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-15.39</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" s="2" t="n">
+        <v>46013</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>46014</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Waba Grill</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-37.24</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-38.38</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-79.53</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>45983</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-14.46</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-13.52</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-19.75</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" s="2" t="n">
+        <v>46018</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-29.99</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>46004</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-57.22</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" s="2" t="n">
+        <v>46018</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-68.13</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-92.97</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-43.2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>WM SUPERCENTER #5156 BEAUMONT CA 279</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-279.11</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>34895.25999999999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>28644.38000000002</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>stmt</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>34895.25999999999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>28644.38</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test1234.xlsx
+++ b/test1234.xlsx
@@ -464,12 +464,14 @@
           <t>diff</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n">
-        <v>0</v>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>Unnamed: 7</t>
         </is>
       </c>
     </row>
@@ -484,16 +486,8 @@
           <t>stmt</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>18542.309999999998</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>20465.86</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -506,16 +500,8 @@
           <t>total</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>18542.31</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>20465.86</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
